--- a/biology/Médecine/Giovanni_Borromeo/Giovanni_Borromeo.xlsx
+++ b/biology/Médecine/Giovanni_Borromeo/Giovanni_Borromeo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Giovanni Borromeo, né le 15 décembre 1898 à Rome (Italie) et mort le 24 août 1961 dans cette même ville, est un médecin italien. En 2004, Yad Vashem l'a reconnu comme un « juste parmi les nations » pour avoir sauvé 5 membres de l'Almagià et de sa famille élargie (Clotilde et Gina Almagià, Luciana Tedesco, Claudio Tedesco, Gabriella Ajo). Borromeo avait été un étudiant et un assistant de Marco Almajà, un professeur très respecté de physiopathologie à l'Université de Rome.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Giovanni Borromeo était le fils du médecin Pietro Borromeo. Pendant ses études de médecine à l'Université de Rome, il fut enrôlé pendant la Première Guerre mondiale. À son retour, il remporta une médaille de bronze. À 22 ans, Borromeo avait obtenu son diplôme de médecine. Selon son fils, en 1931, il fut nommé directeur de l' Ospedali Riuniti di Roma, mais il lui fut interdit d'accepter ce poste parce qu'il n'était pas membre du Parti fasciste. Cette affirmation n'a jamais été étayée par des preuves.
 Le 2 décembre 1933, Borromeo épousa Maria Adelaide Mangani. Ils eurent 3 enfants: Beatrice (1934), Pietro (1937) et Maria Cristina (1943).
@@ -552,7 +566,9 @@
           <t>Sauvetage des Juifs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Des sources concernant l'aide aux Juifs au Fatebenefratelli présentent quelques divergences. Le livre de Pietro Borromeo en 2007 et le livre apologétique divulgateur de Gordon Thomas en 2012 sur le silence de Pie XII affirment que Borromeo avait planifié le sauvetage des Juifs et conçu un syndrome inexistant (le syndrome K) pour les garder en sécurité en tant que patients déguisés. Cette version de l'histoire place les événements dans les semaines précédant la rafle du 16 octobre.
 Contrairement à cette thèse, Sacerdoti et Ossicini datent l'épisode concernant les Juifs du 16 octobre 1943. Sacerdoti déclare que 27 Juifs, qui étaient ses patients et savaient qu'ils pouvaient lui faire confiance, lui avaient demandé de l'aide. Selon la déposition de Sacerdoti, il avait autorisé leur admission avec le diagnostic de la maladie de Koch et que Borromeo et le Prieur « ne s'étaient pas opposés à son action  ». Ces patients restèrent à l'hôpital pendant quelques jours, puis furent renvoyés. Sacerdoti pensait que beaucoup avaient été par la suite dénoncés et arrêtés. Sacerdoti et Ossicini indiquent que K n'était qu'un mot de code interne pour indiquer tous les patients fugitifs de Koch, pas exclusivement juifs.
@@ -589,15 +605,17 @@
           <t>Le syndrome K</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le syndrome K était indiqué sur le dossier du patient pour indiquer que la personne malade n'était pas malade du tout, mais juive. Nous avons créé ces documents pour les Juifs comme s'ils étaient des patients ordinaires, et au moment où nous devions dire de quelle maladie ils souffraient ? C'était le syndrome K, qui signifiait « J'admets un Juif », comme s'il ou elle était malade, mais ils étaient tous en bonne santé.Adriano Ossicini, 2016[1]
-Dans un premier temps, l'hôpital est utilisé comme hospice dans les locaux de l'Église San Giovanni Calibita (en), à Rome. Plus tard, il est transformé en un hôpital moderne, par le docteur Giovanni Borromeo, qui y entre dès 1934, avec l'aide du père Maurizio Bialek[2].
-En 1938, l'Italie adopte des lois antisémites. L'hôpital avait autorisé le médecin juif Vittorio Emanuele Sacerdoti à travailler avec de faux papiers. Avec l'occupation nazie de l'Italie, en septembre 1943, et l'imposition de lois antisémites contre les Juifs romains, Sacerdoti - avec l'approbation de Borromeo et Bialek - fait venir des patients de l'hôpital juif pour les soigner à Fatebenefratelli[2]. Lors de la rafle du ghetto de Rome, le 16 octobre 1943, les rescapés juifs trouvent refuge à l'hôpital. Borromeo les accepte et déclare que ces nouveaux patients ont été diagnostiqués avec une maladie contagieuse et mortelle appelée Il Morbo di K, en le Syndrome K, qui pouvait être interprété comme signifiant maladie de Koch ou maladie de Krebs[3],[2]. Le nom est suggéré par le médecin et activiste antifasciste Adriano Ossicini[1]. La lettre K était destinée aux réfugiés juifs pour les distinguer des vrais patients. K fait référence à l'officier allemand Albert Kesselring, qui dirige les troupes à Rome, et au Sicherheitspolizei et Sicherheitsdienst Herbert Kappler, nommé chef de la police de la ville[1].
-Le syndrome K était supposé être une maladie neurologique dont les symptômes comprenaient des convulsions, de la démence, une paralysie et, finalement, la mort par asphyxie[4]. Bien que les symptômes de la maladie aient été délibérément maintenus ambigus, les nazis se sont abstenus d'enquêter sur l'hôpital ou même de procéder à des recherches de Juifs sur les lieux, par crainte de contracter la maladie[2]. On conseillait aux patients juifs de paraître malades et de tousser fort, ce qui avait pour effet des symptômes semblables à ceux de la tuberculose[2].
-Outre les frères Maurizio et Borromeo, d'autres médecins du personnel aidèrent les patients juifs, et les aidèrent à se cacher dans des endroits plus sûrs à l'extérieur de l'hôpital. En mai 1944, l'hôpital fut attaqué et cinq Juifs de Pologne furent arrêtés. Cependant, la ruse sauva environ 100 réfugiés[2].
-Les frères Maurizio et Borromeo avaient également installé un émetteur radio illégal, au sous-sol de l'hôpital, et avaient pris contact avec le général Roberto Lordi (en) de la Regia Aeronautica. Après la Seconde Guerre mondiale, Borromeo est félicité par le gouvernement italien pour son action, et il est aussi reconnu Juste parmi les nations et inscrit au mémorial de Yad Vashem. Il meurt à l'hôpital le 24 août 1961[2].
+Le syndrome K était indiqué sur le dossier du patient pour indiquer que la personne malade n'était pas malade du tout, mais juive. Nous avons créé ces documents pour les Juifs comme s'ils étaient des patients ordinaires, et au moment où nous devions dire de quelle maladie ils souffraient ? C'était le syndrome K, qui signifiait « J'admets un Juif », comme s'il ou elle était malade, mais ils étaient tous en bonne santé.Adriano Ossicini, 2016
+Dans un premier temps, l'hôpital est utilisé comme hospice dans les locaux de l'Église San Giovanni Calibita (en), à Rome. Plus tard, il est transformé en un hôpital moderne, par le docteur Giovanni Borromeo, qui y entre dès 1934, avec l'aide du père Maurizio Bialek.
+En 1938, l'Italie adopte des lois antisémites. L'hôpital avait autorisé le médecin juif Vittorio Emanuele Sacerdoti à travailler avec de faux papiers. Avec l'occupation nazie de l'Italie, en septembre 1943, et l'imposition de lois antisémites contre les Juifs romains, Sacerdoti - avec l'approbation de Borromeo et Bialek - fait venir des patients de l'hôpital juif pour les soigner à Fatebenefratelli. Lors de la rafle du ghetto de Rome, le 16 octobre 1943, les rescapés juifs trouvent refuge à l'hôpital. Borromeo les accepte et déclare que ces nouveaux patients ont été diagnostiqués avec une maladie contagieuse et mortelle appelée Il Morbo di K, en le Syndrome K, qui pouvait être interprété comme signifiant maladie de Koch ou maladie de Krebs,. Le nom est suggéré par le médecin et activiste antifasciste Adriano Ossicini. La lettre K était destinée aux réfugiés juifs pour les distinguer des vrais patients. K fait référence à l'officier allemand Albert Kesselring, qui dirige les troupes à Rome, et au Sicherheitspolizei et Sicherheitsdienst Herbert Kappler, nommé chef de la police de la ville.
+Le syndrome K était supposé être une maladie neurologique dont les symptômes comprenaient des convulsions, de la démence, une paralysie et, finalement, la mort par asphyxie. Bien que les symptômes de la maladie aient été délibérément maintenus ambigus, les nazis se sont abstenus d'enquêter sur l'hôpital ou même de procéder à des recherches de Juifs sur les lieux, par crainte de contracter la maladie. On conseillait aux patients juifs de paraître malades et de tousser fort, ce qui avait pour effet des symptômes semblables à ceux de la tuberculose.
+Outre les frères Maurizio et Borromeo, d'autres médecins du personnel aidèrent les patients juifs, et les aidèrent à se cacher dans des endroits plus sûrs à l'extérieur de l'hôpital. En mai 1944, l'hôpital fut attaqué et cinq Juifs de Pologne furent arrêtés. Cependant, la ruse sauva environ 100 réfugiés.
+Les frères Maurizio et Borromeo avaient également installé un émetteur radio illégal, au sous-sol de l'hôpital, et avaient pris contact avec le général Roberto Lordi (en) de la Regia Aeronautica. Après la Seconde Guerre mondiale, Borromeo est félicité par le gouvernement italien pour son action, et il est aussi reconnu Juste parmi les nations et inscrit au mémorial de Yad Vashem. Il meurt à l'hôpital le 24 août 1961.
 </t>
         </is>
       </c>
@@ -626,7 +644,9 @@
           <t>Médias</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'histoire dans le film de Giovanni Borromeo est récemment devenue le sujet d'un film, "Mon secret italien", que l'Italie et la Fondation de l'Holocauste ont commandé au documentariste Oren Jacoby. La Fondation, dont la mission est de « partager l'histoire peu connue du rôle de l'Italie à la rescousse des Juifs  », compte parmi ses partisans Pave the Way et est financé par des magnats italo-américains dont Kenneth Langone et Joseph Perella qui lui sert de président.
 My Italian Secret (2015) embrasse la version de Pietro Borromeo et Gordon Thomas de l'histoire et se concentre uniquement sur les anecdotes de la maladie inexistante sans aucune référence à d'autres références historiques. Le président de la Fondation, Joseph Perella, avait initialement annoncé le film en hommage à Giovanni Palatucci. Après la publication des données sur le travail de Palatucci en tant qu'employé sous le régime fasciste, la République sociale italienne et les Allemands, les protagonistes du film sont restés Giovanni Borromeo et Gino Bartali.
@@ -658,7 +678,9 @@
           <t>Lien interne</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>L'Hôpital Fatebenefratelli.</t>
         </is>
